--- a/forecast_summary_B07FW85VFT.xlsx
+++ b/forecast_summary_B07FW85VFT.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>1.016555056730631</v>
       </c>
       <c r="D2" t="n">
-        <v>8.022078658279465</v>
+        <v>7.46596333964162</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.4372386920842355</v>
       </c>
       <c r="D3" t="n">
-        <v>6.86753535079859</v>
+        <v>7.282067361824908</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>-0.1248729060338334</v>
       </c>
       <c r="D4" t="n">
-        <v>6.800422288438693</v>
+        <v>6.016250862187406</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.132788094588971</v>
       </c>
       <c r="D5" t="n">
-        <v>6.583105565995143</v>
+        <v>7.324489562435639</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.217437600009597</v>
       </c>
       <c r="D6" t="n">
-        <v>6.859926962412162</v>
+        <v>7.177969239221491</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>0.3311823535166698</v>
       </c>
       <c r="D7" t="n">
-        <v>6.961696202454162</v>
+        <v>7.045719075091528</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.03906904552855004</v>
       </c>
       <c r="D8" t="n">
-        <v>6.280018391800566</v>
+        <v>7.10606127632622</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.1474540763298143</v>
       </c>
       <c r="D9" t="n">
-        <v>6.676711749169807</v>
+        <v>6.687315603679413</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.3139275709114114</v>
       </c>
       <c r="D10" t="n">
-        <v>7.133671324230236</v>
+        <v>7.06865174975818</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>1.246077122991334</v>
       </c>
       <c r="D11" t="n">
-        <v>8.437361207220924</v>
+        <v>8.449946887370714</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>1.848168993197641</v>
       </c>
       <c r="D12" t="n">
-        <v>9.678545057249819</v>
+        <v>9.081526507139094</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>1.553262228329955</v>
       </c>
       <c r="D13" t="n">
-        <v>8.895966958712602</v>
+        <v>8.450753524545867</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.639900184855829</v>
       </c>
       <c r="D14" t="n">
-        <v>7.535232800841753</v>
+        <v>7.491101567100878</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.1013977058287154</v>
       </c>
       <c r="D15" t="n">
-        <v>6.550443172559979</v>
+        <v>6.607158825180056</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.2154064405807667</v>
       </c>
       <c r="D16" t="n">
-        <v>6.497184244499055</v>
+        <v>6.349029738054945</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>0.04632932314687958</v>
       </c>
       <c r="D17" t="n">
-        <v>6.885409096807086</v>
+        <v>6.898237550595506</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.1735766817308179</v>
       </c>
       <c r="D18" t="n">
-        <v>6.849217182414493</v>
+        <v>7.332117193570622</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.02376930802401708</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763800316762052</v>
+        <v>7.559408079515396</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.1265008466425304</v>
       </c>
       <c r="D20" t="n">
-        <v>6.974868179894933</v>
+        <v>6.651412104404472</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.0517518711403443</v>
       </c>
       <c r="D21" t="n">
-        <v>7.013349703600594</v>
+        <v>6.699021678230643</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B450 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>
